--- a/recipe.xlsx
+++ b/recipe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6abcce324c5d9b70/바탕 화면/SNU/^N^N질환 맞춤 레시피 대체 시스템 (GNN)/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byunw\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{D7814D70-38AB-6C48-9FDC-BDCD9D46A721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AE72DBA-EC3D-0243-BC20-909D30C514A3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCCD804-09AC-4B5E-AEC9-9FC3B582D2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="840" windowWidth="28100" windowHeight="17280" xr2:uid="{249D8612-8163-444F-AC4F-92F089F131C3}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18900" windowHeight="10965" xr2:uid="{249D8612-8163-444F-AC4F-92F089F131C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>레시피명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,24 +48,69 @@
   <si>
     <t>조리방법</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤 두부 가지볶음</t>
+  </si>
+  <si>
+    <t>두부는 키친타올로 물기를 제거한 뒤 깍둑썰기 한다.</t>
+  </si>
+  <si>
+    <t>가지는 반으로 자른 후 어슷하게 썬다.</t>
+  </si>
+  <si>
+    <t>팬에 들기름을 두르고 마늘을 볶아 향을 낸다.</t>
+  </si>
+  <si>
+    <t>두부와 가지를 넣고 중불에서 볶는다.</t>
+  </si>
+  <si>
+    <t>간장, 고춧가루, 물을 넣고 뚜껑을 덮은 후 약불에서 3~4분간 졸인다.</t>
+  </si>
+  <si>
+    <t>불을 끄고 쪽파를 넣어 마무리한다.</t>
+  </si>
+  <si>
+    <t>두부</t>
+  </si>
+  <si>
+    <t>가지</t>
+  </si>
+  <si>
+    <t>다진 마늘</t>
+  </si>
+  <si>
+    <t>간장</t>
+  </si>
+  <si>
+    <t>들기름</t>
+  </si>
+  <si>
+    <t>다진 쪽파</t>
+  </si>
+  <si>
+    <t>고춧가루</t>
+  </si>
+  <si>
+    <t>물</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -74,7 +119,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -443,15 +488,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED209545-D0DD-5340-AF18-82FA3BFD3E81}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,6 +509,88 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
